--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_end.xlsx
@@ -2420,7 +2420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  다…... 당신도 지친 거겠지, 타이터스……
+    <t xml:space="preserve">[name="마리아"]  다…… 당신도 지친 거겠지, 타이터스……
 </t>
   </si>
   <si>
@@ -2532,7 +2532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  "고난과 역경을 두려워 말라"……
+    <t xml:space="preserve">[name="마리아"]  “고난과 어둠을 두려워 말라”……
 </t>
   </si>
   <si>
@@ -2544,7 +2544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">대대로 우리 가문 사람은 고난과 역경과 어둠을 마주하는 방법을 스스로 선택했다.
+    <t xml:space="preserve">대대로 우리 가문 사람은 고난과 어둠을 마주하는 방법을 스스로 선택했다.
 </t>
   </si>
   <si>
@@ -2552,7 +2552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">마가렛이…... 네 언니가 네게 기사에 대한 생각을 말한 적 있느냐?
+    <t xml:space="preserve">마가렛이…… 네 언니가 네게 기사에 대한 생각을 말한 적 있느냐?
 </t>
   </si>
   <si>
@@ -2568,7 +2568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">역경과 어둠을 몰아내고 싶은 거야.
+    <t xml:space="preserve">고난과 어둠을 몰아내고 싶은 거야.
 </t>
   </si>
   <si>
@@ -2732,7 +2732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="대변인 차르니"]  예전 경기에서 타이터스는 상대방이 무릎 꿇고 투항하는 상황을 즐겼어요. 그러니까…….
+    <t xml:space="preserve">[name="대변인 차르니"]  예전 경기에서 타이터스는 상대방이 무릎 꿇고 투항하는 상황을 즐겼어요. 그러니까……
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="조피아"]  아, 미안….. 뼈 다쳤니?
+    <t xml:space="preserve">[name="조피아"]  아, 미안…… 뼈 다쳤니?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_end.xlsx
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Independent knight Maria Nearl vs. “Left-hand” Tytus Topola, one hour and twenty minutes in
+    <t xml:space="preserve">Independent knight Maria Nearl vs. 'Left-hand' Tytus Topola, one hour and twenty minutes in
 </t>
   </si>
   <si>
@@ -1756,7 +1756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  “Fear neither hardship nor darkness...”
+    <t xml:space="preserve">[name="Maria"]  'Fear neither hardship nor darkness...'
 </t>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  “To be a knight is to be the noble light that illuminates the land...”
+    <t xml:space="preserve">[name="Maria"]  'To be a knight is to be the noble light that illuminates the land...'
 </t>
   </si>
   <si>
@@ -1920,7 +1920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  After all, she is the Radiant Knight’s sister, and a certain “Nearl’s” granddaughter. Hah. My past self could’ve only pictured that fear-inspiring old lout upon hearing the name “Nearl.” 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  After all, she is the Radiant Knight’s sister, and a certain 'Nearl’s' granddaughter. Hah. My past self could’ve only pictured that fear-inspiring old lout upon hearing the name 'Nearl.' 
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  You’re just like “Whislash” was—prepare yourself!
+    <t xml:space="preserve">[name="Left-hand Knight"]  You’re just like 'Whislash' was—prepare yourself!
 </t>
   </si>
   <si>
@@ -2096,7 +2096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  We’ve just had—the lengthiest duel of this entire season—! And the one who fell was none other than “Left-hand” Tytus Topola! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  We’ve just had—the lengthiest duel of this entire season—! And the one who fell was none other than 'Left-hand' Tytus Topola! 
 </t>
   </si>
   <si>
@@ -2344,7 +2344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  Man, you’re getting better and better at talking all the time. Where’d that “Ashen Curse” go again?
+    <t xml:space="preserve">[name="Flametail Knight"]  Man, you’re getting better and better at talking all the time. Where’d that 'Ashen Curse' go again?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_end.xlsx
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4:12 PM \ Cloudy, Kazimierz Fireblade Arena
+    <t xml:space="preserve">4:12 P.M. \ Cloudy, Kazimierz Fireblade Arena
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  She gets knocked down, and she gets up, again and again! That spark of light still hasn’t left the eyes of the audience! It’s as if it’s taken root in the smeared blood and soil of the arena! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  She gets knocked down, and she gets up, again and again! That spark of light still hasn't left the eyes of the audience! It's as if it's taken root in the smeared blood and soil of the arena! 
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  —It’s still alive! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  —It's still alive! 
 </t>
   </si>
   <si>
@@ -1620,7 +1620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Hah... hah... no, I’m fine...
+    <t xml:space="preserve">[name="Maria"]  Hah... hah... no, I'm fine...
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  She—she blocks! It’s the first time she’s done it! Maria has blocked Tytus’s attack!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  She—she blocks! It's the first time she's done it! Maria has blocked Tytus's attack!  
 </t>
   </si>
   <si>
@@ -1640,7 +1640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  No, it was dead on... but you’re hitting—a lot less hard.
+    <t xml:space="preserve">[name="Maria"]  No, it was dead on... but you're hitting—a lot less hard.
 </t>
   </si>
   <si>
@@ -1668,7 +1668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tourist"]  The flow’s completely changed... Who knows what’ll happen now...
+    <t xml:space="preserve">[name="Tourist"]  The flow's completely changed... Who knows what'll happen now...
 </t>
   </si>
   <si>
@@ -1692,19 +1692,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tourist A"]  Can that girl... even hold on anymore? This match’s boring now, I’m done... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tourist B"]  ...That one’s Maria Nearl, right...? Margaret’s little sister?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tourist A"]  Really? I’ve been coming to the Majors for two years now, and she’s nowhere on the same level.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tourist B"]  But when they flip the script, that’s what’s worth seeing, isn’t it?
+    <t xml:space="preserve">[name="Tourist A"]  Can that girl... even hold on anymore? This match's boring now, I'm done... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tourist B"]  ...That one's Maria Nearl, right...? Margaret's little sister?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tourist A"]  Really? I've been coming to the Majors for two years now, and she's nowhere on the same level.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tourist B"]  But when they flip the script, that's what's worth seeing, isn't it?
 </t>
   </si>
   <si>
@@ -1724,15 +1724,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Vision’s blurry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t blink, Maria.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blink, and they’ll never open again.
+    <t xml:space="preserve">Vision's blurry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't blink, Maria.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blink, and they'll never open again.
 </t>
   </si>
   <si>
@@ -1812,7 +1812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  It wasn’t at all... It was only a sigh...
+    <t xml:space="preserve">[name="Maria"]  It wasn't at all... It was only a sigh...
 </t>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Keep exerting yourself and you won’t win. Use his arrogance. Use his overconfidence.
+    <t xml:space="preserve">Keep exerting yourself and you won't win. Use his arrogance. Use his overconfidence.
 </t>
   </si>
   <si>
@@ -1840,11 +1840,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  This is the first time the Left-hand Knight Tytus has backed off! There’s Arts! No doubt about it, this is Maria Nearl’s own Arts! Is she using Arts to turn the tables at the last minute?!    
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Ooooh! There’s been a small tremor in Maria’s figures! But even still, the odds are just astounding! The numbers are rivalling corporate donations, now! Would you look at this prize pool?!    
+    <t xml:space="preserve">[name="Greatmouth Mob"]  This is the first time the Left-hand Knight Tytus has backed off! There's Arts! No doubt about it, this is Maria Nearl's own Arts! Is she using Arts to turn the tables at the last minute?!    
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Ooooh! There's been a small tremor in Maria's figures! But even still, the odds are just astounding! The numbers are rivalling corporate donations, now! Would you look at this prize pool?!    
 </t>
   </si>
   <si>
@@ -1892,15 +1892,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  And the tale keeps twisting! They’re both spent, but she’s actually made a massive comeback!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Ladies! And! Gentlemen! Keep your eyes right on the prize, whether it’s the marvelous match or the extravagant prize pool! It’s all shaped up to be the most worthwhile event of the season yet!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Let’s see more coin and more screams! Gotta let your knights know just how hyped you are!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  And the tale keeps twisting! They're both spent, but she's actually made a massive comeback!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Ladies! And! Gentlemen! Keep your eyes right on the prize, whether it's the marvelous match or the extravagant prize pool! It's all shaped up to be the most worthwhile event of the season yet!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Let's see more coin and more screams! Gotta let your knights know just how hyped you are!  
 </t>
   </si>
   <si>
@@ -1912,7 +1912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  It is readily apparent that Tytus could have won this. His vision tunneled on trampling the Nearls’ dignity. This middling, neglectful means of combat always tends to offer the other side an advantage.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  It is readily apparent that Tytus could have won this. His vision tunneled on trampling the Nearls' dignity. This middling, neglectful means of combat always tends to offer the other side an advantage.
 </t>
   </si>
   <si>
@@ -1920,11 +1920,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  After all, she is the Radiant Knight’s sister, and a certain 'Nearl’s' granddaughter. Hah. My past self could’ve only pictured that fear-inspiring old lout upon hearing the name 'Nearl.' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Such is the decline of the knightly family, it would make one weep. Compared to the corporate, a knightly family’s dreary class conflicts truly are so fragile.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  After all, she is the Radiant Knight's sister, and the granddaughter of a certain 'Nearl.' Hah. My past self could've only pictured that fear-inspiring old lout upon hearing the name 'Nearl.' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Such is the decline of the knightly family, it would make one weep. Compared to the corporate, a knightly family's dreary class conflicts truly are so fragile.
 </t>
   </si>
   <si>
@@ -1944,7 +1944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  They’re worried that Tytus will lose. But there is no harm in him losing. The sticking point is how hot that topic is, and on that, I am very much satisfied. 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  They're worried that Tytus will lose. But there is no harm in him losing. The sticking point is how hot that topic is, and on that, I am very much satisfied. 
 </t>
   </si>
   <si>
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Mm... he is the commander of the Blade Helmet Knightclub. Arrogant, believes the universe revolves around himself. But he is undeniably strong, and sublime in the art of torturing his enemy’s will to fight.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Mm... he is the commander of the Blade Helmet Knightclub. Arrogant, believes the universe revolves around himself. But he is undeniably strong, and sublime in the art of torturing his enemy's will to fight.
 </t>
   </si>
   <si>
@@ -1968,7 +1968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (No, need to be steady... can’t stand upright... just, stay like this... and breathe...)
+    <t xml:space="preserve">[name="Maria"]  (No, need to be steady... can't stand upright... just, stay like this... and breathe...)
 </t>
   </si>
   <si>
@@ -1976,11 +1976,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  (Maria... should’ve long since reached her limit... Even in her duel with Ingra, she never got hit this bad...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  —You’ve shed your blood for this! Grit your teeth, Maria!
+    <t xml:space="preserve">[name="Zofia"]  (Maria... should've long since reached her limit... Even in her duel with Ingra, she never got hit this bad...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  —You've shed your blood for this! Grit your teeth, Maria!
 </t>
   </si>
   <si>
@@ -1988,7 +1988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  Humiliating... I’ve wasted my time humoring nothing but trash...
+    <t xml:space="preserve">[name="Left-hand Knight"]  Humiliating... I've wasted my time humoring nothing but trash...
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  You’re just like 'Whislash' was—prepare yourself!
+    <t xml:space="preserve">[name="Left-hand Knight"]  You're just like 'Whislash' was—prepare yourself!
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’m still trying to learn from Margaret. The way she used Arts. That turn of her wrists.
+    <t xml:space="preserve">I'm still trying to learn from Margaret. The way she used Arts. That turn of her wrists.
 </t>
   </si>
   <si>
@@ -2028,11 +2028,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  N-Now that’s no coincidence! Maria’s once again blocked the Left-hand Knight’s onslaught! What’s going on?! Could Tytus be toying with the already cornered Nearl!?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  ...Good. Very good. I don’t know what you’re thinking... but no matter. I will crush every speck of your light to dust. 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  N-Now that's no coincidence! Maria's once again blocked the Left-hand Knight's onslaught! What's going on?! Could Tytus be toying with the already cornered Nearl!?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Left-hand Knight"]  ...Good. Very good. I don't know what you're thinking... but no matter. I will crush every speck of your light to dust. 
 </t>
   </si>
   <si>
@@ -2040,15 +2040,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Look closely, y’all! This is the first time the Left-hand Knight’s ever taken that stance! The first time he’s ever let his opponent pull one over on him!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Even against Nascent Nearl, don’tcha think this is a little extreme?! No! Anyone who knows Tytus knows it’s not! All his fans here in the arena know the score!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  But he’s really hit his head against it today! Maria’s resolve hasn’t wavered one bit! I’ve gotta admit, folks, the way she’s hanging in there, even I’m shedding a couple tears!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Look closely, y'all! This is the first time the Left-hand Knight's ever taken that stance! The first time he's ever let his opponent pull one over on him!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Even against Nascent Nearl, don'tcha think this is a little extreme?! No! Anyone who knows Tytus knows it's not! All his fans here in the arena know the score!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  But he's really hit his head against it today! Maria's resolve hasn't wavered one bit! I've gotta admit, folks, the way she's hanging in there, even I'm shedding a couple tears!  
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">—Something isn’t right.
+    <t xml:space="preserve">—Something isn't right.
 </t>
   </si>
   <si>
@@ -2064,11 +2064,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In her heart lies only victory. She wills to win. She’s conjured countless ways to grasp this one last chance firm.   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But in this instant, she can only question that victory she’s been pursuing all this time.
+    <t xml:space="preserve">In her heart lies only victory. She wills to win. She's conjured countless ways to grasp this one last chance firm.   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But in this instant, she can only question that victory she's been pursuing all this time.
 </t>
   </si>
   <si>
@@ -2088,7 +2088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  An instant’s feint. Arts focused on your shield. You really do... have the blood of a pegasus... tch.
+    <t xml:space="preserve">[name="Left-hand Knight"]  An instant's feint. Arts focused on your shield. You really do... have the blood of a pegasus... tch.
 </t>
   </si>
   <si>
@@ -2096,11 +2096,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  We’ve just had—the lengthiest duel of this entire season—! And the one who fell was none other than 'Left-hand' Tytus Topola! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Who could’ve seen this coming—! I ask you! Who could’ve seen this coming?!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  We've just had—the lengthiest duel of this entire season—! And the one who fell was none other than 'Left-hand' Tytus Topola! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Who could've seen this coming—! I ask you! Who could've seen this coming?!   
 </t>
   </si>
   <si>
@@ -2132,7 +2132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Glory, wealth, your family’s honor, but what is it you’re missing...? Hm, what is it you’re missing?
+    <t xml:space="preserve">Glory, wealth, your family's honor, but what is it you're missing...? Hm, what is it you're missing?
 </t>
   </si>
   <si>
@@ -2148,7 +2148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (I can’t... I can’t stand—)
+    <t xml:space="preserve">[name="Maria"]  (I can't... I can't stand—)
 </t>
   </si>
   <si>
@@ -2168,15 +2168,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Mm-hm... but it’s no big deal...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Maria... I’m sorry... I might’ve been too harsh on you before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  You’re just like your sister. You’re a knight, and you should be able to choose your own path—
+    <t xml:space="preserve">[name="Maria"]  Mm-hm... but it's no big deal...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Maria... I'm sorry... I might've been too harsh on you before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  You're just like your sister. You're a knight, and you should be able to choose your own path—
 </t>
   </si>
   <si>
@@ -2192,7 +2192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  ...Maria won. That match’ll have been broadcast on every terminal in the four cities.
+    <t xml:space="preserve">[name="Bald Marcin"]  ...Maria won. That match'll have been broadcast on every terminal in the four cities.
 </t>
   </si>
   <si>
@@ -2200,11 +2200,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  But... it’s not that simple. You gotta help her, Młynar. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  Truly a miracle. If you’re so worried for Maria, why ask me to help her, and her to give up on her idiotic path to knighthood?
+    <t xml:space="preserve">[name="Bald Marcin"]  But... it's not that simple. You gotta help her, Młynar. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  Truly a miracle. If you're so worried for Maria, why ask me to help her, and her to give up on her idiotic path to knighthood?
 </t>
   </si>
   <si>
@@ -2212,7 +2212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  That’s enough... If the spokesmen and the Knights Association are to directly intervene, I won’t have a single hand to lend...
+    <t xml:space="preserve">[name="Młynar"]  That's enough... If the spokesmen and the Knights Association are to directly intervene, I won't have a single hand to lend...
 </t>
   </si>
   <si>
@@ -2220,11 +2220,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Maria decided to do this for her family, y’know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  Nobody ever asked her to... Don’t give me those self-righteous excuses.
+    <t xml:space="preserve">[name="Bald Marcin"]  Maria decided to do this for her family, y'know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  Nobody ever asked her to... Don't give me those self-righteous excuses.
 </t>
   </si>
   <si>
@@ -2236,7 +2236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  —If this is all you came to tell me, you can go now. I have other things to deal with. I’m still not done yet with some files the Director wanted...
+    <t xml:space="preserve">[name="Młynar"]  —If this is all you came to tell me, you can go now. I have other things to deal with. I'm still not done yet with some files the Director wanted...
 </t>
   </si>
   <si>
@@ -2244,11 +2244,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Don’t be presumptuous, Marcin.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Yeah. Maybe you’re right. You’ve really disappointed us all, Młynar. 
+    <t xml:space="preserve">[name="Młynar"]  Don't be presumptuous, Marcin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Yeah. Maybe you're right. You've really disappointed us all, Młynar. 
 </t>
   </si>
   <si>
@@ -2256,11 +2256,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  If you can’t even bring yourself to care for Maria’s safety... then we’ll look after old Nearl’s granddaughter for him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  You’re leading her to ruin and you know it clear as day.
+    <t xml:space="preserve">[name="Bald Marcin"]  If you can't even bring yourself to care for Maria's safety... then we'll look after old Nearl's granddaughter for him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  You're leading her to ruin and you know it clear as day.
 </t>
   </si>
   <si>
@@ -2276,35 +2276,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  Don’t rush it, jeez...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  We can't stop… we don’t want any of our Infected here to starve. And we already lost one we could’ve saved.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  Heading back to the arena’s too risky, though. Dunno how the National Council feels about us, either...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  National schmational... I don’t there’s any justice in Kazimierz anymore. Not even in the law.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  But we can’t let ourselves forget we’re all in the right. It’s not our fault if they say right’s wrong. The problem is if the National Council comes in to say we’re guilty, then we lose. Just like the Radiant Knight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  But, hey... haha, their minds must be blown. Honestly, I did NOT expect it either... What do you think they’ll do next?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  Think they’ll be watching all the Infected now? The ones we bought and freed... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  ...It’s all been one game. Die to the arena, or die to some assassin’s arrow. No difference.
+    <t xml:space="preserve">[name="Flametail Knight"]  Don't rush it, jeez...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ashlock Knight"]  We can't stop... we don't want any of our Infected here to starve. And we already lost one we could've saved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  Heading back to the arena's too risky, though. Dunno how the National Council feels about us, either...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ashlock Knight"]  National schmational... I don't there's any justice in Kazimierz anymore. Not even in the law.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  But we can't let ourselves forget we're all in the right. It's not our fault if they say right's wrong. The problem is if the National Council comes in to say we're guilty, then we lose. Just like the Radiant Knight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  But, hey... haha, their minds must be blown. Honestly, I did NOT expect it either... What do you think they'll do next?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  Think they'll be watching all the Infected now? The ones we bought and freed... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ashlock Knight"]  ...It's all been one game. Die to the arena, or die to some assassin's arrow. No difference.
 </t>
   </si>
   <si>
@@ -2312,19 +2312,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  But let’s just hold out a biiiit longer. No reason to get Nearlie and all her people wrapped up in our stupid underground fight. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  ...Alright. I’m gonna trust that you have a plan.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  Who the hell knows? We’ve been doing this dumbass tightrope act since the beginning.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  Aren’t you scared, Ashley?
+    <t xml:space="preserve">[name="Flametail Knight"]  But let's just hold out a biiiit longer. No reason to get Nearlie and all her people wrapped up in our stupid underground fight. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ashlock Knight"]  ...Alright. I'm gonna trust that you have a plan.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  Who the hell knows? We've been doing this dumbass tightrope act since the beginning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  Aren't you scared, Ashley?
 </t>
   </si>
   <si>
@@ -2332,19 +2332,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  We’re not the sort of people to run into some resistance and think twice about it. Remember all we did just to get some titles... and the blood we spilled for them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  ...You’re right, you’re right. I’m thinking too hard.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  Yeah, you are... long as we’re together, long as we’ve got a pair of fists to fight back with, we’re golden.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  Man, you’re getting better and better at talking all the time. Where’d that 'Ashen Curse' go again?
+    <t xml:space="preserve">[name="Ashlock Knight"]  We're not the sort of people to run into some resistance and think twice about it. Remember all we did just to get some titles... and the blood we spilled for them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  ...You're right, you're right. I'm thinking too hard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ashlock Knight"]  Yeah, you are... long as we're together, long as we've got a pair of fists to fight back with, we're golden.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  Man, you're getting better and better at talking all the time. Where'd that 'Ashen Curse' go again?
 </t>
   </si>
   <si>
@@ -2728,7 +2728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="대변인 차르니"]  글쎄요…… 그는 블레이드 헬멧 기사단의 주력 기사입니다. 거만하고 안하무인이지만 확실히 강하고, 상대의 투지를 꺾는 것에도 능숙하죠.
+    <t xml:space="preserve">[name="대변인 차르니"]  글쎄요…… 그는 블레이드헬멧 기사단의 주력 기사입니다. 거만하고 안하무인이지만 확실히 강하고, 상대의 투지를 꺾는 것에도 능숙하죠.
 </t>
   </si>
   <si>
